--- a/Horn_Intent_Recognition/horn_intents_updated.xlsx
+++ b/Horn_Intent_Recognition/horn_intents_updated.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAY1HYD\Documents\Parking Project\Git-Research\Research-Project\Horn_Intent_Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E901562-AC7E-49BC-85C3-F81A673B51DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174F91DD-C5BD-4ACD-A20A-6377D4B5F148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3249" uniqueCount="1096">
   <si>
     <t>filename</t>
   </si>
@@ -3293,6 +3306,21 @@
   </si>
   <si>
     <t>horn_presence</t>
+  </si>
+  <si>
+    <t>horn</t>
+  </si>
+  <si>
+    <t>no horn</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>side</t>
   </si>
 </sst>
 </file>
@@ -3321,7 +3349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3344,13 +3372,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3655,10 +3695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1081"/>
+  <dimension ref="A1:H1081"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3669,7 +3709,7 @@
     <col min="4" max="4" width="8.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3682,8 +3722,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F1" s="2"/>
+      <c r="G1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H1">
+        <f>COUNTIF(B:B, "1")</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3696,8 +3744,15 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF(B:B, "0")</f>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3711,7 +3766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3724,8 +3779,15 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF(D:D, "Ahead")</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3738,8 +3800,15 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF(D:D, "Back")</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3752,8 +3821,15 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF(D:D, "Side")</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3767,7 +3843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3781,7 +3857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -3795,7 +3871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -3809,7 +3885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -3823,7 +3899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3837,7 +3913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -3851,7 +3927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -3865,7 +3941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -3879,7 +3955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
